--- a/dataset-1/2-with_data_augmentation/results/adasyn.xlsx
+++ b/dataset-1/2-with_data_augmentation/results/adasyn.xlsx
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.7000000000000001</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9333333333333333</v>
+        <v>0.8750000000000001</v>
       </c>
     </row>
   </sheetData>
